--- a/Data/Processed/Angiosperms/missing_powo_ipni/Aristolochiaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Aristolochiaceae.xlsx
@@ -982,7 +982,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1345,7 +1345,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -2918,7 +2918,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3116,7 +3116,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3534,7 +3534,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4062,7 +4062,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -6130,7 +6130,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -7153,7 +7153,7 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -7461,7 +7461,7 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -7549,7 +7549,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -8077,7 +8077,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -8330,7 +8330,7 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -8913,7 +8913,7 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -9001,7 +9001,7 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -9089,7 +9089,7 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -9177,7 +9177,7 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -9187,7 +9187,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 58(Mém. 3f): 577. 1911 </t>
+          <t>Bull. Soc. Bot. France 58(Mém. 3f): 577. 1911</t>
         </is>
       </c>
       <c r="J151" t="b">
@@ -9255,7 +9255,7 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -9333,7 +9333,7 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -9411,7 +9411,7 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -9421,7 +9421,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oréades 6(10–11): 79 (1977–1978 publ. 1978), without type. </t>
+          <t>Oréades 6(10–11): 79 (1977–1978 publ. 1978), without type.</t>
         </is>
       </c>
       <c r="J154" t="b">
@@ -9489,7 +9489,7 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -9499,7 +9499,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t xml:space="preserve">J. Bot. 53: 5. 1915 </t>
+          <t>J. Bot. 53: 5. 1915</t>
         </is>
       </c>
       <c r="J155" t="b">
@@ -9567,7 +9567,7 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
